--- a/sample/copy-sheet/xls-to-xlsx.xlsx
+++ b/sample/copy-sheet/xls-to-xlsx.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="4">
   <si>
     <t>基本信息</t>
   </si>
@@ -63,12 +63,19 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>多</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
         <color theme="5"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>种</t>
@@ -77,16 +84,103 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>文字</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
     </r>
   </si>
   <si>
     <t>余雨彤</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>多</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>种</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>文字</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
     <t>杜恺玲</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>多</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>种</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>文字</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="28"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3</t>
+    </r>
   </si>
   <si>
     <t>黄清昶</t>
@@ -101,7 +195,7 @@
     <r>
       <rPr>
         <u val="none"/>
-        <color indexed="8"/>
+        <color rgb="000000"/>
         <sz val="12.0"/>
         <rFont val="宋体"/>
         <charset val="134"/>
@@ -111,7 +205,7 @@
     <r>
       <rPr>
         <u val="none"/>
-        <color indexed="8"/>
+        <color rgb="000000"/>
         <sz val="12.0"/>
         <rFont val="宋体"/>
         <charset val="134"/>
@@ -121,7 +215,7 @@
     <r>
       <rPr>
         <u val="none"/>
-        <color indexed="8"/>
+        <color rgb="000000"/>
         <sz val="12.0"/>
         <rFont val="宋体"/>
         <charset val="134"/>
@@ -133,7 +227,7 @@
     <r>
       <rPr>
         <u val="none"/>
-        <color indexed="8"/>
+        <color rgb="000000"/>
         <sz val="12.0"/>
         <rFont val="宋体"/>
         <charset val="134"/>
@@ -143,7 +237,7 @@
     <r>
       <rPr>
         <u val="none"/>
-        <color indexed="8"/>
+        <color rgb="000000"/>
         <sz val="12.0"/>
         <rFont val="宋体"/>
         <charset val="134"/>
@@ -153,7 +247,7 @@
     <r>
       <rPr>
         <u val="none"/>
-        <color indexed="53"/>
+        <color rgb="FF6600"/>
         <sz val="11.0"/>
         <rFont val="宋体"/>
         <charset val="134"/>
@@ -163,7 +257,7 @@
     <r>
       <rPr>
         <u val="none"/>
-        <color indexed="53"/>
+        <color rgb="FF6600"/>
         <sz val="11.0"/>
         <rFont val="宋体"/>
         <charset val="134"/>
@@ -173,7 +267,7 @@
     <r>
       <rPr>
         <u val="none"/>
-        <color indexed="53"/>
+        <color rgb="FF6600"/>
         <sz val="12.0"/>
         <rFont val="宋体"/>
         <charset val="134"/>
@@ -183,7 +277,7 @@
     <r>
       <rPr>
         <u val="none"/>
-        <color indexed="10"/>
+        <color rgb="FF0000"/>
         <sz val="22.0"/>
         <rFont val="宋体"/>
         <charset val="134"/>
@@ -193,7 +287,7 @@
     <r>
       <rPr>
         <u val="none"/>
-        <color indexed="8"/>
+        <color rgb="000000"/>
         <sz val="12.0"/>
         <rFont val="宋体"/>
         <charset val="134"/>
@@ -201,12 +295,53 @@
       <t>个</t>
     </r>
     <r>
-      <t>Cell</t>
-    </r>
-    <r>
       <rPr>
         <u val="none"/>
-        <color indexed="8"/>
+        <i val="true"/>
+        <color rgb="000000"/>
+        <sz val="12.0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="none"/>
+        <i val="true"/>
+        <color rgb="000000"/>
+        <sz val="12.0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>e</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="none"/>
+        <i val="true"/>
+        <color rgb="000000"/>
+        <sz val="12.0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>l</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="none"/>
+        <i val="true"/>
+        <color rgb="000000"/>
+        <sz val="12.0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>l</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="none"/>
+        <color rgb="000000"/>
         <sz val="12.0"/>
         <rFont val="宋体"/>
         <charset val="134"/>
@@ -218,7 +353,7 @@
     <r>
       <rPr>
         <u val="none"/>
-        <color indexed="8"/>
+        <color rgb="000000"/>
         <sz val="12.0"/>
         <rFont val="宋体"/>
         <charset val="134"/>
@@ -228,7 +363,7 @@
     <r>
       <rPr>
         <u val="none"/>
-        <color indexed="8"/>
+        <color rgb="000000"/>
         <sz val="12.0"/>
         <rFont val="宋体"/>
         <charset val="134"/>
@@ -240,7 +375,7 @@
     <r>
       <rPr>
         <u val="none"/>
-        <color indexed="8"/>
+        <color rgb="000000"/>
         <sz val="12.0"/>
         <rFont val="宋体"/>
         <charset val="134"/>
@@ -250,7 +385,7 @@
     <r>
       <rPr>
         <u val="none"/>
-        <color indexed="8"/>
+        <color rgb="000000"/>
         <sz val="12.0"/>
         <rFont val="宋体"/>
         <charset val="134"/>
@@ -260,7 +395,7 @@
     <r>
       <rPr>
         <u val="none"/>
-        <color indexed="8"/>
+        <color rgb="000000"/>
         <sz val="12.0"/>
         <rFont val="宋体"/>
         <charset val="134"/>
@@ -279,7 +414,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="94">
+  <fonts count="117">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -325,6 +460,12 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -336,6 +477,22 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -355,26 +512,17 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -388,7 +536,67 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -402,78 +610,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="5"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="28"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <name val="宋体"/>
@@ -755,6 +908,27 @@
       <sz val="12.0"/>
       <u val="none"/>
       <charset val="134"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+      <u val="none"/>
+      <charset val="134"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+      <u val="none"/>
+      <charset val="134"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+      <u val="none"/>
+      <charset val="134"/>
       <color rgb="FF0000"/>
     </font>
     <font>
@@ -783,10 +957,98 @@
       <sz val="12.0"/>
       <u val="none"/>
       <charset val="134"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+      <u val="none"/>
+      <charset val="134"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="11.0"/>
+      <u val="none"/>
+      <charset val="134"/>
       <color rgb="FF6600"/>
     </font>
     <font>
       <name val="宋体"/>
+      <sz val="11.0"/>
+      <u val="none"/>
+      <charset val="134"/>
+      <color rgb="FF6600"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+      <u val="none"/>
+      <charset val="134"/>
+      <color rgb="FF6600"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="22.0"/>
+      <u val="none"/>
+      <charset val="134"/>
+      <color rgb="FF0000"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+      <u val="none"/>
+      <charset val="134"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+      <i val="true"/>
+      <u val="none"/>
+      <charset val="134"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+      <i val="true"/>
+      <u val="none"/>
+      <charset val="134"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+      <i val="true"/>
+      <u val="none"/>
+      <charset val="134"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+      <i val="true"/>
+      <u val="none"/>
+      <charset val="134"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+      <u val="none"/>
+      <charset val="134"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+      <u val="none"/>
+      <charset val="134"/>
+      <color rgb="FF6600"/>
+    </font>
+    <font>
+      <name val="宋体"/>
       <sz val="12.0"/>
       <u val="none"/>
       <charset val="134"/>
@@ -960,8 +1222,43 @@
       <charset val="134"/>
       <color rgb="000000"/>
     </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+      <u val="none"/>
+      <charset val="134"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+      <u val="none"/>
+      <charset val="134"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+      <u val="none"/>
+      <charset val="134"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+      <u val="none"/>
+      <charset val="134"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+      <u val="none"/>
+      <charset val="134"/>
+      <color rgb="000000"/>
+    </font>
   </fonts>
-  <fills count="38">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -970,67 +1267,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1042,19 +1423,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1066,121 +1453,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
       <patternFill patternType="none">
-        <bgColor indexed="64"/>
+        <bgColor indexed="0"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="none">
-        <fgColor indexed="64"/>
-        <bgColor indexed="64"/>
+        <fgColor indexed="0"/>
+        <bgColor indexed="0"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill>
-        <fgColor indexed="64"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="13"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="13"/>
-        <bgColor indexed="64"/>
+        <fgColor indexed="0"/>
+        <bgColor indexed="0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="0"/>
+        <bgColor indexed="0"/>
       </patternFill>
     </fill>
   </fills>
@@ -1198,6 +1501,15 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262" rgb="5B9BD5"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1232,41 +1544,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262" rgb="5B9BD5"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4" rgb="5B9BD5"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1287,6 +1564,32 @@
       <top/>
       <bottom style="medium">
         <color theme="4" rgb="5B9BD5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" rgb="5B9BD5"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1343,152 +1646,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1513,123 +1816,171 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="35" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="37" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="false"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="35" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
-      <alignment horizontal="general" vertical="center" wrapText="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="35" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
-      <alignment horizontal="general" vertical="center" wrapText="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="35" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
-      <alignment horizontal="general" vertical="center" wrapText="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="35" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
-      <alignment horizontal="general" vertical="center" wrapText="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="35" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
-      <alignment horizontal="general" vertical="center" wrapText="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="35" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
-      <alignment horizontal="general" vertical="center" wrapText="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="35" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
-      <alignment horizontal="general" vertical="center" wrapText="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="35" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
-      <alignment horizontal="general" vertical="center" wrapText="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="35" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
-      <alignment horizontal="general" vertical="center" wrapText="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="35" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
-      <alignment horizontal="general" vertical="center" wrapText="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="35" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
-      <alignment horizontal="general" vertical="center" wrapText="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="35" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
-      <alignment horizontal="general" vertical="center" wrapText="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="35" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
-      <alignment horizontal="general" vertical="center" wrapText="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="35" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
-      <alignment horizontal="general" vertical="center" wrapText="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="62" fillId="37" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
+      <alignment horizontal="general" vertical="center" wrapText="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="63" fillId="37" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
+      <alignment horizontal="general" vertical="center" wrapText="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="64" fillId="37" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
+      <alignment horizontal="general" vertical="center" wrapText="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="65" fillId="37" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
+      <alignment horizontal="general" vertical="center" wrapText="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="66" fillId="37" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
+      <alignment horizontal="general" vertical="center" wrapText="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="67" fillId="37" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
+      <alignment horizontal="general" vertical="center" wrapText="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="68" fillId="37" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
+      <alignment horizontal="general" vertical="center" wrapText="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="69" fillId="37" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
+      <alignment horizontal="general" vertical="center" wrapText="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="70" fillId="37" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment horizontal="general" vertical="center" wrapText="false"/>
     </xf>
-    <xf numFmtId="0" fontId="71" fillId="35" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
-      <alignment horizontal="general" vertical="center" wrapText="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="72" fillId="35" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
-      <alignment horizontal="general" vertical="center" wrapText="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="73" fillId="35" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
-      <alignment horizontal="general" vertical="center" wrapText="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="74" fillId="35" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
-      <alignment horizontal="general" vertical="center" wrapText="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="75" fillId="35" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
-      <alignment horizontal="general" vertical="center" wrapText="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="76" fillId="35" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
-      <alignment horizontal="general" vertical="center" wrapText="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="77" fillId="35" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
-      <alignment horizontal="general" vertical="center" wrapText="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="78" fillId="35" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
-      <alignment horizontal="general" vertical="center" wrapText="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="79" fillId="35" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
-      <alignment horizontal="general" vertical="center" wrapText="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="80" fillId="35" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
-      <alignment horizontal="general" vertical="center" wrapText="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="81" fillId="35" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
-      <alignment horizontal="general" vertical="center" wrapText="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="82" fillId="35" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
-      <alignment horizontal="general" vertical="center" wrapText="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="83" fillId="35" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
-      <alignment horizontal="general" vertical="center" wrapText="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="84" fillId="35" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
-      <alignment horizontal="general" vertical="center" wrapText="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="85" fillId="35" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
-      <alignment horizontal="general" vertical="center" wrapText="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="86" fillId="35" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
-      <alignment horizontal="general" vertical="center" wrapText="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="87" fillId="35" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
-      <alignment horizontal="general" vertical="center" wrapText="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="88" fillId="35" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
-      <alignment horizontal="general" vertical="center" wrapText="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="89" fillId="35" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
-      <alignment horizontal="general" vertical="center" wrapText="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="90" fillId="35" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
-      <alignment horizontal="general" vertical="center" wrapText="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="91" fillId="35" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
-      <alignment horizontal="general" vertical="center" wrapText="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="92" fillId="35" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
-      <alignment horizontal="general" vertical="center" wrapText="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="93" fillId="35" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
-      <alignment horizontal="general" vertical="center" wrapText="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="71" fillId="37" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
+      <alignment horizontal="general" vertical="center" wrapText="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="72" fillId="37" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
+      <alignment horizontal="general" vertical="center" wrapText="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="73" fillId="37" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
+      <alignment horizontal="general" vertical="center" wrapText="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="86" fillId="37" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
+      <alignment horizontal="general" vertical="center" wrapText="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="87" fillId="37" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
+      <alignment horizontal="general" vertical="center" wrapText="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="88" fillId="38" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
+      <alignment horizontal="general" vertical="center" wrapText="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="89" fillId="37" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
+      <alignment horizontal="general" vertical="center" wrapText="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="90" fillId="37" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
+      <alignment horizontal="general" vertical="center" wrapText="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="91" fillId="37" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
+      <alignment horizontal="general" vertical="center" wrapText="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="92" fillId="37" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
+      <alignment horizontal="general" vertical="center" wrapText="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="93" fillId="37" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
+      <alignment horizontal="general" vertical="center" wrapText="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="94" fillId="37" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
+      <alignment horizontal="general" vertical="center" wrapText="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="95" fillId="37" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
+      <alignment horizontal="general" vertical="center" wrapText="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="96" fillId="37" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
+      <alignment horizontal="general" vertical="center" wrapText="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="97" fillId="37" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
+      <alignment horizontal="general" vertical="center" wrapText="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="98" fillId="37" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
+      <alignment horizontal="general" vertical="center" wrapText="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="99" fillId="37" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
+      <alignment horizontal="general" vertical="center" wrapText="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="100" fillId="37" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
+      <alignment horizontal="general" vertical="center" wrapText="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="101" fillId="37" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
+      <alignment horizontal="general" vertical="center" wrapText="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="102" fillId="37" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
+      <alignment horizontal="general" vertical="center" wrapText="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="103" fillId="37" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
+      <alignment horizontal="general" vertical="center" wrapText="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="104" fillId="37" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
+      <alignment horizontal="general" vertical="center" wrapText="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="105" fillId="37" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
+      <alignment horizontal="general" vertical="center" wrapText="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="106" fillId="37" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
+      <alignment horizontal="general" vertical="center" wrapText="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="107" fillId="37" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
+      <alignment horizontal="general" vertical="center" wrapText="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="110" fillId="37" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
+      <alignment horizontal="general" vertical="center" wrapText="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="111" fillId="37" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
+      <alignment horizontal="general" vertical="center" wrapText="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="115" fillId="37" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
+      <alignment horizontal="general" vertical="center" wrapText="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="116" fillId="37" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
+      <alignment horizontal="general" vertical="center" wrapText="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1683,6 +2034,11 @@
     <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="000000FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1952,7 +2308,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="6"/>
@@ -2085,7 +2441,7 @@
       <c r="A12">
         <v>10</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C12">
@@ -2102,30 +2458,36 @@
       <c r="C13">
         <v>33</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G13" s="10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" ht="18" spans="1:7">
       <c r="A14">
         <v>12</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="9" t="s">
         <v>16</v>
       </c>
       <c r="C14">
         <v>33</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="G14" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" ht="40" spans="1:7">
       <c r="A15">
         <v>13</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C15">
         <v>27</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -2133,7 +2495,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C16">
         <v>20</v>
@@ -2144,7 +2506,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C17">
         <v>28</v>
@@ -2152,7 +2514,7 @@
     </row>
     <row r="18" spans="2:3">
       <c r="B18" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C18" t="n">
         <f>SUM(C3:C17)</f>
@@ -2184,195 +2546,195 @@
   </cols>
   <sheetData>
     <row r="1" ht="17.6" customHeight="true">
-      <c r="A1" t="s" s="8">
-        <v>21</v>
+      <c r="A1" t="s" s="11">
+        <v>23</v>
       </c>
       <c r="B1"/>
       <c r="C1"/>
       <c r="D1"/>
     </row>
     <row r="2" ht="17.6" customHeight="true">
-      <c r="B2" t="n" s="9">
+      <c r="B2" t="n" s="13">
         <v>1.0</v>
       </c>
     </row>
     <row r="3" ht="17.6" customHeight="true">
-      <c r="B3" t="n" s="10">
+      <c r="B3" t="n" s="15">
         <v>2.0</v>
       </c>
     </row>
     <row r="4" ht="17.6" customHeight="true">
-      <c r="B4" t="n" s="11">
+      <c r="B4" t="n" s="17">
         <v>3.0</v>
       </c>
     </row>
     <row r="5" ht="17.6" customHeight="true">
-      <c r="B5" t="n" s="12">
+      <c r="B5" t="n" s="19">
         <v>4.0</v>
       </c>
     </row>
     <row r="6" ht="17.6" customHeight="true">
-      <c r="B6" t="n" s="13">
+      <c r="B6" t="n" s="21">
         <v>5.0</v>
       </c>
     </row>
     <row r="7" ht="17.6" customHeight="true">
-      <c r="B7" t="n" s="14">
+      <c r="B7" t="n" s="23">
         <v>6.0</v>
       </c>
     </row>
     <row r="8" ht="17.6" customHeight="true">
-      <c r="B8" t="n" s="15">
+      <c r="B8" t="n" s="25">
         <v>7.0</v>
       </c>
     </row>
     <row r="9" ht="17.6" customHeight="true">
-      <c r="B9" t="n" s="16">
+      <c r="B9" t="n" s="27">
         <v>8.0</v>
       </c>
     </row>
     <row r="10" ht="17.6" customHeight="true">
-      <c r="B10" t="n" s="17">
+      <c r="B10" t="n" s="29">
         <v>9.0</v>
       </c>
     </row>
     <row r="11" ht="17.6" customHeight="true">
-      <c r="B11" t="n" s="18">
+      <c r="B11" t="n" s="31">
         <v>10.0</v>
       </c>
     </row>
     <row r="12" ht="17.6" customHeight="true">
-      <c r="B12" t="n" s="19">
+      <c r="B12" t="n" s="33">
         <v>11.0</v>
       </c>
     </row>
     <row r="13" ht="32.0" customHeight="true">
-      <c r="B13" t="n" s="20">
+      <c r="B13" t="n" s="35">
         <v>12.0</v>
       </c>
-      <c r="G13" t="s" s="21">
-        <v>22</v>
+      <c r="G13" t="s" s="37">
+        <v>24</v>
       </c>
     </row>
     <row r="14" ht="17.6" customHeight="true">
-      <c r="B14" t="n" s="22">
+      <c r="B14" t="n" s="39">
         <v>13.0</v>
       </c>
     </row>
     <row r="15" ht="17.6" customHeight="true">
-      <c r="B15" t="n" s="23">
+      <c r="B15" t="n" s="41">
         <v>14.0</v>
       </c>
     </row>
     <row r="16" ht="17.6" customHeight="true">
-      <c r="B16" t="n" s="24">
+      <c r="B16" t="n" s="43">
         <v>15.0</v>
       </c>
     </row>
     <row r="17" ht="17.6" customHeight="true">
-      <c r="B17" t="n" s="25">
+      <c r="B17" t="n" s="45">
         <v>16.0</v>
       </c>
     </row>
     <row r="18" ht="17.6" customHeight="true">
-      <c r="B18" t="n" s="26">
+      <c r="B18" t="n" s="47">
         <v>17.0</v>
       </c>
     </row>
     <row r="19" ht="17.6" customHeight="true">
-      <c r="B19" t="n" s="27">
+      <c r="B19" t="n" s="49">
         <v>18.0</v>
       </c>
     </row>
     <row r="20" ht="17.6" customHeight="true">
-      <c r="B20" t="n" s="28">
+      <c r="B20" t="n" s="51">
         <v>19.0</v>
       </c>
     </row>
     <row r="21" ht="17.6" customHeight="true">
-      <c r="B21" t="n" s="29">
+      <c r="B21" t="n" s="53">
         <v>20.0</v>
       </c>
     </row>
     <row r="22" ht="17.6" customHeight="true">
-      <c r="B22" t="n" s="30">
+      <c r="B22" t="n" s="55">
         <v>21.0</v>
       </c>
     </row>
     <row r="23" ht="17.6" customHeight="true">
-      <c r="B23" t="n" s="31">
+      <c r="B23" t="n" s="57">
         <v>22.0</v>
       </c>
     </row>
     <row r="24" ht="17.6" customHeight="true">
-      <c r="B24" t="n" s="32">
+      <c r="B24" t="n" s="59">
         <v>23.0</v>
       </c>
     </row>
     <row r="25" ht="17.6" customHeight="true">
-      <c r="B25" t="n" s="33">
+      <c r="B25" t="n" s="61">
         <v>24.0</v>
       </c>
     </row>
     <row r="26" ht="17.6" customHeight="true">
-      <c r="B26" t="n" s="34">
+      <c r="B26" t="n" s="63">
         <v>25.0</v>
       </c>
     </row>
     <row r="27" ht="17.6" customHeight="true">
-      <c r="B27" t="n" s="35">
+      <c r="B27" t="n" s="65">
         <v>26.0</v>
       </c>
     </row>
     <row r="28" ht="17.6" customHeight="true">
-      <c r="B28" t="n" s="36">
+      <c r="B28" t="n" s="67">
         <v>27.0</v>
       </c>
     </row>
     <row r="29" ht="17.6" customHeight="true">
-      <c r="B29" t="n" s="37">
+      <c r="B29" t="n" s="69">
         <v>28.0</v>
       </c>
     </row>
     <row r="30" ht="17.6" customHeight="true">
-      <c r="B30" t="n" s="38">
+      <c r="B30" t="n" s="71">
         <v>29.0</v>
       </c>
     </row>
     <row r="31" ht="17.6" customHeight="true">
-      <c r="B31" t="n" s="39">
+      <c r="B31" t="n" s="73">
         <v>30.0</v>
       </c>
     </row>
     <row r="32" ht="17.6" customHeight="true">
-      <c r="B32" t="n" s="40">
+      <c r="B32" t="n" s="75">
         <v>31.0</v>
       </c>
     </row>
     <row r="33" ht="17.6" customHeight="true">
-      <c r="B33" t="n" s="41">
+      <c r="B33" t="n" s="77">
         <v>32.0</v>
       </c>
     </row>
     <row r="34" ht="17.6" customHeight="true">
-      <c r="B34" t="n" s="42">
+      <c r="B34" t="n" s="79">
         <v>33.0</v>
       </c>
     </row>
     <row r="35" ht="17.6" customHeight="true">
-      <c r="A35" t="s" s="43">
-        <v>23</v>
-      </c>
-      <c r="B35" s="44" t="n">
+      <c r="A35" t="s" s="81">
+        <v>25</v>
+      </c>
+      <c r="B35" s="83" t="n">
         <f>SUM(B2:B34)</f>
         <v>561.0</v>
       </c>
     </row>
     <row r="36" ht="17.6" customHeight="true">
-      <c r="A36" t="s" s="45">
-        <v>24</v>
-      </c>
-      <c r="B36" s="46" t="n">
+      <c r="A36" t="s" s="85">
+        <v>26</v>
+      </c>
+      <c r="B36" s="87" t="n">
         <f>AVERAGE(B2:B34)</f>
         <v>17.0</v>
       </c>
